--- a/Check.xlsx
+++ b/Check.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874BC053-3340-40FD-8397-65390DCE1AD0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6032286-D810-4041-A839-267B9C0A2902}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CheckList" sheetId="1" r:id="rId1"/>
-    <sheet name="BR" sheetId="2" r:id="rId2"/>
+    <sheet name="CLAPP" sheetId="3" r:id="rId2"/>
+    <sheet name="BR" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="131">
   <si>
     <t>Можливість перегляду факультетів</t>
   </si>
@@ -162,13 +163,265 @@
   </si>
   <si>
     <t>Functional</t>
+  </si>
+  <si>
+    <t>Функціональне тестування</t>
+  </si>
+  <si>
+    <t>Наявність головного меню.</t>
+  </si>
+  <si>
+    <t>Наявність кнопки "Грати"</t>
+  </si>
+  <si>
+    <t>Наявність кнопки "Грати у спецрежимі"</t>
+  </si>
+  <si>
+    <t>Наявність кнопки "Гра в міні-ігри"</t>
+  </si>
+  <si>
+    <t>Наявність кнопки "Гра з друзями"</t>
+  </si>
+  <si>
+    <t>Можливість гри без мережі.</t>
+  </si>
+  <si>
+    <t>Можливість входу в акаунт.</t>
+  </si>
+  <si>
+    <t>Можливість створення акаунту.</t>
+  </si>
+  <si>
+    <t>Можливість входу в акаунт зо допомогою соц.мереж.</t>
+  </si>
+  <si>
+    <t>Наявність ігрової валюти.</t>
+  </si>
+  <si>
+    <t>Наявність платних послуг.</t>
+  </si>
+  <si>
+    <t>Наявність преміум акаунту.</t>
+  </si>
+  <si>
+    <t>Ad-Hoc тестування</t>
+  </si>
+  <si>
+    <t>Можливість об'єднуватися в клуби.</t>
+  </si>
+  <si>
+    <t>Наявність винагород.</t>
+  </si>
+  <si>
+    <t>Можливість зміни кию</t>
+  </si>
+  <si>
+    <t>Можливість перегляду рейтингу.</t>
+  </si>
+  <si>
+    <t>Наявність турнірів.</t>
+  </si>
+  <si>
+    <t>I18n and L10n тестування.</t>
+  </si>
+  <si>
+    <t>Зміна валюти в залежності від місцезнаходження користувача.</t>
+  </si>
+  <si>
+    <t>Коректна зміна мови.</t>
+  </si>
+  <si>
+    <t>Змінювання часу в грі в залежності від місцезнаходження користувача.</t>
+  </si>
+  <si>
+    <t>Перевірка входу в ігровий акаунт.</t>
+  </si>
+  <si>
+    <t>Перевірка виходу з ігрового акаунту.</t>
+  </si>
+  <si>
+    <t>Перевірка роботи кнопок головного меню.</t>
+  </si>
+  <si>
+    <t>Перевірка роботи ігрового магазину.</t>
+  </si>
+  <si>
+    <t>Перевірка зміни кия.</t>
+  </si>
+  <si>
+    <t>Перевірка механіки гри.</t>
+  </si>
+  <si>
+    <t>Перевірка відображеня статистики користувача.</t>
+  </si>
+  <si>
+    <t>Перевірка ігрової пошти.</t>
+  </si>
+  <si>
+    <t>Перевірка режимів гри.</t>
+  </si>
+  <si>
+    <t>Перевірка коректного відображення рейтингу гравців.</t>
+  </si>
+  <si>
+    <t>Перевірка перегляду учасників клану.</t>
+  </si>
+  <si>
+    <t>Зміна іконки аватара користувача при підвищенні рівня.</t>
+  </si>
+  <si>
+    <t>Можливість легко переміщуватись за функціоналом гри.</t>
+  </si>
+  <si>
+    <t>Легкість керування києм.</t>
+  </si>
+  <si>
+    <t>Відображення шкали сили удару.</t>
+  </si>
+  <si>
+    <t>Переміщення шкали сили удару в залежності від налаштування (зліва, зправа)</t>
+  </si>
+  <si>
+    <t>Чи змінюється оформлення стола в залежності від обраної гри.</t>
+  </si>
+  <si>
+    <t>Чи змінюється оформлення кия в залежності від вибору.</t>
+  </si>
+  <si>
+    <t>Чи легко переміщуватись в головному меню гри.</t>
+  </si>
+  <si>
+    <t>Чи легко обирати кий.</t>
+  </si>
+  <si>
+    <t>Чи легко почати гру.</t>
+  </si>
+  <si>
+    <t>Чи легко знайти кнопку налаштування гри.</t>
+  </si>
+  <si>
+    <t>Чи легко налаштувати гру.</t>
+  </si>
+  <si>
+    <t>Тестування дизайну та візуальної привабливості.</t>
+  </si>
+  <si>
+    <t>Чи зрозуміло які дії потрібно роботи в грі.</t>
+  </si>
+  <si>
+    <t>Чи привабливий дизайн та гра.</t>
+  </si>
+  <si>
+    <t>Чи зрозуміло які товари є акційними.</t>
+  </si>
+  <si>
+    <t>Чи зрозуміло який кий краще.</t>
+  </si>
+  <si>
+    <t>Взаємодія між користувачами.</t>
+  </si>
+  <si>
+    <t>Чи легко зв'язатись з командою підтримки гри.</t>
+  </si>
+  <si>
+    <t>Перевірка можливості спілкування між гравцями.</t>
+  </si>
+  <si>
+    <t>Перевірка додавання користувача у друзі.</t>
+  </si>
+  <si>
+    <t>Можливість гри між друзями.</t>
+  </si>
+  <si>
+    <t>Можливість перегляду останньої активності користувача.</t>
+  </si>
+  <si>
+    <t>Можливий перегляд статистики користувача під час гри.</t>
+  </si>
+  <si>
+    <t>Аналіз конкурентів.</t>
+  </si>
+  <si>
+    <t>Які переваги та недоліки мають конкуренти.</t>
+  </si>
+  <si>
+    <t>Чи є на ринку конкуренти з таким напрямом гри.</t>
+  </si>
+  <si>
+    <t>Які можливості є для розширення функціоналу гри порівняно з конкурентами?</t>
+  </si>
+  <si>
+    <t>Тестування сумісності.</t>
+  </si>
+  <si>
+    <t>Робота на ОС Android.</t>
+  </si>
+  <si>
+    <t>Usability тестування.</t>
+  </si>
+  <si>
+    <t>Робота на ОС Apple iOS.</t>
+  </si>
+  <si>
+    <t>Перевірка портативності з оновленням версії мобільного телефону.</t>
+  </si>
+  <si>
+    <t>Тестування продуктивності</t>
+  </si>
+  <si>
+    <t>Швидкість роботи додатку з 3G з'єднанням.</t>
+  </si>
+  <si>
+    <t>Швидкість роботи додатку з 4G з'єднанням.</t>
+  </si>
+  <si>
+    <t>Швидкість роботи додатку з 5G з'єднанням.</t>
+  </si>
+  <si>
+    <t>Швидкість роботи додатку Wi-Fi з'єднанням.</t>
+  </si>
+  <si>
+    <t>Швидкість роботи додатку з використанням VPN.</t>
+  </si>
+  <si>
+    <t>Швидкість роботи додатку з Edge з'єднанням.</t>
+  </si>
+  <si>
+    <t>Швидкість роботи додатку з 2G з'єднанням.</t>
+  </si>
+  <si>
+    <t>Збереження ігрового процесу при екстреному виході з гри.</t>
+  </si>
+  <si>
+    <t>Продовження процесу гри при зовнішньому повідомленні.</t>
+  </si>
+  <si>
+    <t>Перевірка змін налаштувань.</t>
+  </si>
+  <si>
+    <t>Швидкість роботи додатку при низькому заряді батареї.</t>
+  </si>
+  <si>
+    <t>Швидкість роботи додатку при зарядці.</t>
+  </si>
+  <si>
+    <t>Тестування на різних діагоналях дисплею.</t>
+  </si>
+  <si>
+    <t>Тестування на різних роздільних здатностях дисплею.</t>
+  </si>
+  <si>
+    <t>Швидкість роботи при великії навантажуваності телефону.</t>
+  </si>
+  <si>
+    <t>Тестування на різних матрицях дисплею.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,8 +457,29 @@
       <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +498,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -238,7 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -252,6 +532,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -535,7 +823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -744,6 +1032,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DF38EFD-7BF2-47E4-B3FB-2601B9CC7A24}">
+  <dimension ref="A1:B85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="95.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20.25">
+      <c r="A1" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75">
+      <c r="A2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75">
+      <c r="A3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75">
+      <c r="A4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75">
+      <c r="A5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75">
+      <c r="A6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75">
+      <c r="A7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.75">
+      <c r="A8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18.75">
+      <c r="A9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18.75">
+      <c r="A10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18.75">
+      <c r="A11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18.75">
+      <c r="A12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18.75">
+      <c r="A13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18.75">
+      <c r="A14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18.75">
+      <c r="A15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18.75">
+      <c r="A16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18.75">
+      <c r="A17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18.75">
+      <c r="A18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="20.25">
+      <c r="A19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" ht="18.75">
+      <c r="A20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18.75">
+      <c r="A21" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18.75">
+      <c r="A22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="20.25">
+      <c r="A23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" ht="20.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" ht="18.75">
+      <c r="A25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18.75">
+      <c r="A26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18.75">
+      <c r="A27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18.75">
+      <c r="A28" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18.75">
+      <c r="A29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18.75">
+      <c r="A30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18.75">
+      <c r="A31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18.75">
+      <c r="A32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18.75">
+      <c r="A33" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18.75">
+      <c r="A34" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18.75">
+      <c r="A35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18.75">
+      <c r="A36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18.75">
+      <c r="A37" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18.75">
+      <c r="A38" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="20.25">
+      <c r="A39" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="10"/>
+    </row>
+    <row r="40" spans="1:2" ht="18.75">
+      <c r="A40" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="18.75">
+      <c r="A41" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18.75">
+      <c r="A42" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" ht="18.75">
+      <c r="A43" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="18.75">
+      <c r="A44" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="18.75">
+      <c r="A45" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="18.75">
+      <c r="A46" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="18.75">
+      <c r="A47" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18.75">
+      <c r="A48" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18.75">
+      <c r="A49" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18.75">
+      <c r="A50" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18.75">
+      <c r="A51" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18.75">
+      <c r="A52" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="18.75">
+      <c r="A53" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="20.25">
+      <c r="A54" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="10"/>
+    </row>
+    <row r="55" spans="1:2" ht="18.75">
+      <c r="A55" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="18.75">
+      <c r="A56" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="18.75">
+      <c r="A57" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="18.75">
+      <c r="A58" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="18.75">
+      <c r="A59" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="20.25">
+      <c r="A60" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" s="10"/>
+    </row>
+    <row r="61" spans="1:2" ht="18.75">
+      <c r="A61" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="18.75">
+      <c r="A62" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="18.75">
+      <c r="A63" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="18.75">
+      <c r="A64" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="18.75">
+      <c r="A65" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="18.75">
+      <c r="A66" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="20.25">
+      <c r="A67" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" s="10"/>
+    </row>
+    <row r="68" spans="1:2" ht="18.75">
+      <c r="A68" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="18.75">
+      <c r="A69" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="18.75">
+      <c r="A70" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="20.25">
+      <c r="A71" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="18.75">
+      <c r="A72" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="18.75">
+      <c r="A73" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="18.75">
+      <c r="A74" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="20.25">
+      <c r="A75" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="18.75">
+      <c r="A76" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" s="12" customFormat="1" ht="18.75">
+      <c r="A77" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="18.75">
+      <c r="A78" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="18.75">
+      <c r="A79" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="18.75">
+      <c r="A80" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="18.75">
+      <c r="A81" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="18.75">
+      <c r="A82" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="18.75">
+      <c r="A83" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="18.75">
+      <c r="A84" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="18.75">
+      <c r="A85" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{322EDFB9-1965-44DC-AF7A-DA113410577E}">
   <dimension ref="A2:B23"/>
   <sheetViews>
